--- a/WB_DatabaseGlobal_tables.xlsx
+++ b/WB_DatabaseGlobal_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_ТЕКУЩАЯ РАБОТА\WorkbookBasic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC7A830-FE8F-46E8-AEA6-B75EB0ED1270}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DD248C-341D-4529-983E-130ECC614024}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19770" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Workbook" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="436">
   <si>
     <t>Id;</t>
   </si>
@@ -112,9 +112,6 @@
     <t>Geo.Qazaqstan</t>
   </si>
   <si>
-    <t>PublicHoliday</t>
-  </si>
-  <si>
     <t>01.01.YYYY</t>
   </si>
   <si>
@@ -214,9 +211,6 @@
     <t>МРП</t>
   </si>
   <si>
-    <t>Amount</t>
-  </si>
-  <si>
     <t>KZT</t>
   </si>
   <si>
@@ -235,9 +229,6 @@
     <t>Deal.GFSS</t>
   </si>
   <si>
-    <t>Rate</t>
-  </si>
-  <si>
     <t>Unit.Percent</t>
   </si>
   <si>
@@ -250,15 +241,9 @@
     <t>Осн ставка ОПВ</t>
   </si>
   <si>
-    <t>Deal.OPV</t>
-  </si>
-  <si>
     <t>Осн ставка взносов ОСМС</t>
   </si>
   <si>
-    <t>Deal.OSMS</t>
-  </si>
-  <si>
     <t>Осн ставка отчислений ОСМС</t>
   </si>
   <si>
@@ -268,9 +253,6 @@
     <t>Макс лимит базы ГФСС</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>Unit.MinSalary</t>
   </si>
   <si>
@@ -1036,140 +1018,323 @@
     <t>InternationalWomenDay</t>
   </si>
   <si>
+    <t>UnityDay</t>
+  </si>
+  <si>
+    <t>VictoryDay</t>
+  </si>
+  <si>
+    <t>IndependenceDay</t>
+  </si>
+  <si>
+    <t>FirstPresidentDay</t>
+  </si>
+  <si>
+    <t>ConstitutionDay</t>
+  </si>
+  <si>
+    <t>Kurban Ait</t>
+  </si>
+  <si>
+    <t>RepublicDay</t>
+  </si>
+  <si>
+    <t>DefenderFatherland Day</t>
+  </si>
+  <si>
+    <t>MinRate2020-3-4Q</t>
+  </si>
+  <si>
+    <t>MinRate2020-1Q</t>
+  </si>
+  <si>
+    <t>МРП2020-1Q</t>
+  </si>
+  <si>
+    <t>МРП2020-3-4Q</t>
+  </si>
+  <si>
+    <t>MinSalary2020-1Q</t>
+  </si>
+  <si>
+    <t>MinSalary2020-3-4Q</t>
+  </si>
+  <si>
+    <t>МинЗП2020-1Q</t>
+  </si>
+  <si>
+    <t>МинЗП2020-3-4Q</t>
+  </si>
+  <si>
+    <t>Debt</t>
+  </si>
+  <si>
+    <t>Debt.GFSS.MainRate</t>
+  </si>
+  <si>
+    <t>Debt.IncomePersonDebt.RateMain</t>
+  </si>
+  <si>
+    <t>Debt.SN.MainRate</t>
+  </si>
+  <si>
+    <t>Debt.VAT.Import.RateMain</t>
+  </si>
+  <si>
+    <t>Debt.VAT.Purchase.RateMain</t>
+  </si>
+  <si>
+    <t>Debt.VAT.Purchase.RateReduce</t>
+  </si>
+  <si>
+    <t>Debt.VAT.Sell.MainRate</t>
+  </si>
+  <si>
+    <t>Debt.VAT.Sell.RateReduce</t>
+  </si>
+  <si>
+    <t>Debt.IncomePerson.RateForeigner</t>
+  </si>
+  <si>
+    <t>Ставка ИПН для нерезидентов</t>
+  </si>
+  <si>
+    <t>Debt.GFSS.Rate</t>
+  </si>
+  <si>
+    <t>Debt.SN.Rate</t>
+  </si>
+  <si>
+    <t>Debt.Pension.Base</t>
+  </si>
+  <si>
+    <t>Debt.VAT.Sell.RateMain</t>
+  </si>
+  <si>
+    <t>Debt.Pension.OPV.RateBasic</t>
+  </si>
+  <si>
+    <t>AcctTableClosing</t>
+  </si>
+  <si>
+    <t>Закрытие бухсчетов</t>
+  </si>
+  <si>
+    <t>AcctTableClosing.1</t>
+  </si>
+  <si>
+    <t>Sign.Acc.Dt</t>
+  </si>
+  <si>
+    <t>AcctTableClosing.2</t>
+  </si>
+  <si>
+    <t>Sign.Acc.Ct</t>
+  </si>
+  <si>
+    <t>Account.5710</t>
+  </si>
+  <si>
+    <t>AcctTableClosing.3</t>
+  </si>
+  <si>
+    <t>Role.Generic.Basic</t>
+  </si>
+  <si>
+    <t>Role.Generic.Variant</t>
+  </si>
+  <si>
+    <t>AcctTableClosing.4</t>
+  </si>
+  <si>
+    <t>Process.Closing</t>
+  </si>
+  <si>
+    <t>Deal.Face.OPV</t>
+  </si>
+  <si>
+    <t>Debt.Pension.Base.MaxLimit</t>
+  </si>
+  <si>
+    <t>2014-01-01</t>
+  </si>
+  <si>
+    <t>2015-01-01</t>
+  </si>
+  <si>
+    <t>2016-01-01</t>
+  </si>
+  <si>
+    <t>2017-01-01</t>
+  </si>
+  <si>
+    <t>2018-01-01</t>
+  </si>
+  <si>
+    <t>2020-01-01</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2012-12-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-04-01</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2021-01-01</t>
+  </si>
+  <si>
+    <t>2023-01-01</t>
+  </si>
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2023-12-31</t>
+  </si>
+  <si>
+    <t>2019-21-31</t>
+  </si>
+  <si>
+    <t>Debt.GFSS.Base.MaxLimit</t>
+  </si>
+  <si>
+    <t>Debt.IncomePerson.RateMain</t>
+  </si>
+  <si>
+    <t>Debt.OSMS.Base.MaxLimit</t>
+  </si>
+  <si>
+    <t>Deal.Face.OSMS</t>
+  </si>
+  <si>
+    <t>Debt.OSMS.Base.MinLimit</t>
+  </si>
+  <si>
+    <t>Мин лимит базы ОСМС</t>
+  </si>
+  <si>
+    <t>Debt.OSMS.EmployeePay.RateBasic</t>
+  </si>
+  <si>
+    <t>Debt.OSMS.EmployerFee.RateBasic</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Осн ставка налогов, сборов</t>
+  </si>
+  <si>
+    <t>Default.</t>
+  </si>
+  <si>
+    <t>Default.Debt.RateBasic</t>
+  </si>
+  <si>
+    <t>Meter.PublicHoliday</t>
+  </si>
+  <si>
+    <t>Meter.ExtraDayOff</t>
+  </si>
+  <si>
+    <t>Meter.Amount</t>
+  </si>
+  <si>
+    <t>Meter.Rate</t>
+  </si>
+  <si>
+    <t>Meter.Quantity</t>
+  </si>
+  <si>
+    <t>Default.WorkHourInWorkDay</t>
+  </si>
+  <si>
+    <t>Осн число раб часов в раб дне</t>
+  </si>
+  <si>
+    <t>Unit.WorkHour</t>
+  </si>
+  <si>
+    <t>Meter.Time</t>
+  </si>
+  <si>
+    <t>Info.Tax.RateBasic</t>
+  </si>
+  <si>
+    <t>Вычет МинЗП из базы ИПН</t>
+  </si>
+  <si>
+    <t>Default.Debt.IncomePerson.Base.Deduction.MinSalary</t>
+  </si>
+  <si>
+    <t>Info.Tax.Deduction.MinSalary</t>
+  </si>
+  <si>
+    <t>Unit.MinCalcRate</t>
+  </si>
+  <si>
+    <t>Debt.DepreciationTax.Rate.Group4</t>
+  </si>
+  <si>
+    <t>Ставка аморт-и налоговой группа4</t>
+  </si>
+  <si>
+    <t>Debt.DepreciationTax.Rate.Group1</t>
+  </si>
+  <si>
+    <t>Ставка аморт-и налоговой группа1</t>
+  </si>
+  <si>
+    <t>Deal.Face.kgd.tax</t>
+  </si>
+  <si>
+    <t>Debt.DepreciationTax.Rate.Group2</t>
+  </si>
+  <si>
+    <t>Debt.DepreciationTax.Rate.Group3</t>
+  </si>
+  <si>
+    <t>Ставка аморт-и налоговой группа2</t>
+  </si>
+  <si>
+    <t>Ставка аморт-и налоговой группа3</t>
+  </si>
+  <si>
     <t>NauryzMeiramy</t>
-  </si>
-  <si>
-    <t>UnityDay</t>
-  </si>
-  <si>
-    <t>VictoryDay</t>
-  </si>
-  <si>
-    <t>IndependenceDay</t>
-  </si>
-  <si>
-    <t>FirstPresidentDay</t>
-  </si>
-  <si>
-    <t>ConstitutionDay</t>
-  </si>
-  <si>
-    <t>Kurban Ait</t>
-  </si>
-  <si>
-    <t>RepublicDay</t>
-  </si>
-  <si>
-    <t>DefenderFatherland Day</t>
-  </si>
-  <si>
-    <t>MinRate2020-3-4Q</t>
-  </si>
-  <si>
-    <t>MinRate2020-1Q</t>
-  </si>
-  <si>
-    <t>МРП2020-1Q</t>
-  </si>
-  <si>
-    <t>МРП2020-3-4Q</t>
-  </si>
-  <si>
-    <t>MinSalary2020-1Q</t>
-  </si>
-  <si>
-    <t>MinSalary2020-3-4Q</t>
-  </si>
-  <si>
-    <t>МинЗП2020-1Q</t>
-  </si>
-  <si>
-    <t>МинЗП2020-3-4Q</t>
-  </si>
-  <si>
-    <t>Debt</t>
-  </si>
-  <si>
-    <t>Debt.GFSS.MainRate</t>
-  </si>
-  <si>
-    <t>Debt.IncomePersonDebt.RateMain</t>
-  </si>
-  <si>
-    <t>Debt.OPV.RateMain</t>
-  </si>
-  <si>
-    <t>Debt.OSMS.EmployePay.RateMain</t>
-  </si>
-  <si>
-    <t>Debt.OSMS.EmployerFee.RateMain</t>
-  </si>
-  <si>
-    <t>Debt.SN.MainRate</t>
-  </si>
-  <si>
-    <t>Debt.DebtBase.MaxLimit.GFSS</t>
-  </si>
-  <si>
-    <t>Debt.DebtBase.MaxLimit.OPV</t>
-  </si>
-  <si>
-    <t>Debt.DebtBase.MaxLimit.OSMS</t>
-  </si>
-  <si>
-    <t>Debt.VAT.Import.RateMain</t>
-  </si>
-  <si>
-    <t>Debt.VAT.Purchase.RateMain</t>
-  </si>
-  <si>
-    <t>Debt.VAT.Purchase.RateReduce</t>
-  </si>
-  <si>
-    <t>Debt.VAT.Sell.MainRate</t>
-  </si>
-  <si>
-    <t>Debt.VAT.Sell.RateReduce</t>
-  </si>
-  <si>
-    <t>Debt.IncomePerson.RateForeigner</t>
-  </si>
-  <si>
-    <t>Ставка ИПН для нерезидентов</t>
-  </si>
-  <si>
-    <t>Debt.GFSS.Rate</t>
-  </si>
-  <si>
-    <t>Debt.Pension.OPV.RateMain</t>
-  </si>
-  <si>
-    <t>Debt.OSMS.EmployeePay.RateMain</t>
-  </si>
-  <si>
-    <t>Debt.SN.Rate</t>
-  </si>
-  <si>
-    <t>Debt.GFSS.Base</t>
-  </si>
-  <si>
-    <t>Debt.Pension.Base</t>
-  </si>
-  <si>
-    <t>Debt.OSMS.Base</t>
-  </si>
-  <si>
-    <t>Debt.VAT.Sell.RateMain</t>
-  </si>
-  <si>
-    <t>Debt.Pension.OPV.RateBasic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1351,6 +1516,21 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Franklin Gothic Medium"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1680,7 +1860,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1724,16 +1904,28 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="45" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="45" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="46">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1770,6 +1962,9 @@
     <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Нейтральный" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный_Account" xfId="43" xr:uid="{8F817AF6-C054-4AF8-92F7-BD136DDF6B29}"/>
+    <cellStyle name="Обычный_Role" xfId="44" xr:uid="{9C28C9C6-CBCC-45FC-8A1B-859515F4660F}"/>
+    <cellStyle name="Обычный_Tax" xfId="45" xr:uid="{9699CD91-39DA-4275-BAAA-401CED0F0AF8}"/>
     <cellStyle name="Обычный_Unit" xfId="42" xr:uid="{AD046AD6-4976-4290-9216-7AD38BAC9CBD}"/>
     <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -2091,37 +2286,37 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z154"/>
+  <dimension ref="A1:Z166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A170" sqref="A170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="9.140625" style="2"/>
     <col min="6" max="6" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" style="2" customWidth="1"/>
     <col min="8" max="8" width="15.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="43" style="2" customWidth="1"/>
+    <col min="9" max="9" width="53.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="46.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="40.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="32" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="33.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.5703125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="27" max="16384" width="9.140625" style="2"/>
@@ -2171,19 +2366,19 @@
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>19</v>
@@ -2212,7 +2407,7 @@
         <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>26</v>
@@ -2224,18 +2419,21 @@
         <v>29</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>330</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>28</v>
@@ -2244,5128 +2442,5760 @@
         <v>29</v>
       </c>
       <c r="V3" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="X3" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="Z3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>331</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="W4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="X4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>435</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>338</v>
+        <v>435</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="W5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="X5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>435</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>338</v>
+        <v>435</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>30</v>
+        <v>412</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>332</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="J8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="W8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="X8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>333</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="J9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="W9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="X9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>333</v>
+      </c>
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="J10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="W10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="X10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>336</v>
+      </c>
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="J11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="W11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="X11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>334</v>
+      </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="J12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="W12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="X12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>334</v>
+      </c>
       <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z13" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>342</v>
-      </c>
       <c r="J14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="W14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="W14" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="X14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>338</v>
+      </c>
       <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="J15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="W15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="W15" s="2" t="s">
+      <c r="X15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="X15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z15" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="F17" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J16" s="2" t="s">
+      <c r="K17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z16" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="J17" s="2" t="s">
+      <c r="K18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="W18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="W17" s="2" t="s">
+      <c r="X18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="X17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z17" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="H18" s="4">
-        <v>41274</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="J18" s="2" t="s">
+      <c r="K19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="W19" s="4">
+        <v>41208</v>
+      </c>
+      <c r="X19" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="W18" s="4">
-        <v>41208</v>
-      </c>
-      <c r="X18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z18" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G19" s="4">
-        <v>41275</v>
-      </c>
-      <c r="H19" s="4">
-        <v>41639</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="J19" s="2" t="s">
+      <c r="Z19" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="W20" s="4">
+        <v>41562</v>
+      </c>
+      <c r="X20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="W19" s="4">
-        <v>41562</v>
-      </c>
-      <c r="X19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z19" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G20" s="4">
-        <v>41640</v>
-      </c>
-      <c r="H20" s="4">
-        <v>42004</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="J20" s="2" t="s">
+      <c r="Z20" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="W21" s="4">
+        <v>41916</v>
+      </c>
+      <c r="X21" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="W20" s="4">
-        <v>41916</v>
-      </c>
-      <c r="X20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z20" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G21" s="4">
-        <v>42005</v>
-      </c>
-      <c r="H21" s="4">
-        <v>42369</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="J21" s="2" t="s">
+      <c r="Z21" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="W22" s="4">
+        <v>42270</v>
+      </c>
+      <c r="X22" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="W21" s="4">
-        <v>42270</v>
-      </c>
-      <c r="X21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z21" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G22" s="4">
-        <v>42370</v>
-      </c>
-      <c r="H22" s="4">
-        <v>42735</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="J22" s="2" t="s">
+      <c r="Z22" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="W23" s="4">
+        <v>42625</v>
+      </c>
+      <c r="X23" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V22" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="W22" s="4">
-        <v>42625</v>
-      </c>
-      <c r="X22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z22" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G23" s="4">
-        <v>42736</v>
-      </c>
-      <c r="H23" s="4">
-        <v>43100</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="J23" s="2" t="s">
+      <c r="Z23" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="W24" s="4">
+        <v>42948</v>
+      </c>
+      <c r="X24" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="W23" s="4">
-        <v>42948</v>
-      </c>
-      <c r="X23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z23" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G24" s="4">
-        <v>43101</v>
-      </c>
-      <c r="H24" s="4">
-        <v>43465</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="J24" s="2" t="s">
+      <c r="Z24" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="W25" s="4">
+        <v>43333</v>
+      </c>
+      <c r="X25" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="W24" s="4">
-        <v>43333</v>
-      </c>
-      <c r="X24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z24" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G25" s="4">
-        <v>43466</v>
-      </c>
-      <c r="H25" s="4">
-        <v>43830</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="J25" s="2" t="s">
+      <c r="Z25" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="W26" s="4">
+        <v>43688</v>
+      </c>
+      <c r="X26" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="W25" s="4">
-        <v>43688</v>
-      </c>
-      <c r="X25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z25" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G26" s="4">
-        <v>43831</v>
-      </c>
-      <c r="H26" s="4">
-        <v>44196</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="J26" s="2" t="s">
+      <c r="Z26" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="W27" s="4">
+        <v>44043</v>
+      </c>
+      <c r="X27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="W26" s="4">
-        <v>44043</v>
-      </c>
-      <c r="X26" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z26" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G27" s="4">
-        <v>44197</v>
-      </c>
-      <c r="H27" s="4">
-        <v>44561</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="J27" s="2" t="s">
+      <c r="Z27" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="W28" s="4">
+        <v>44397</v>
+      </c>
+      <c r="X28" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V27" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="W27" s="4">
-        <v>44397</v>
-      </c>
-      <c r="X27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z27" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G28" s="4">
-        <v>44562</v>
-      </c>
-      <c r="H28" s="4">
-        <v>44926</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="J28" s="2" t="s">
+      <c r="Z28" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="W29" s="4">
+        <v>44751</v>
+      </c>
+      <c r="X29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V28" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="W28" s="4">
-        <v>44751</v>
-      </c>
-      <c r="X28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z28" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G29" s="4">
-        <v>44927</v>
-      </c>
-      <c r="H29" s="4">
-        <v>45291</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V29" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="W29" s="4">
-        <v>45105</v>
-      </c>
-      <c r="X29" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="Z29" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>62</v>
+        <v>337</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>398</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>62</v>
+        <v>337</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V30" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="W30" s="4">
+        <v>45105</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z30" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="H31" s="4">
-        <v>41274</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V31" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="W31" s="2">
-        <v>1618</v>
-      </c>
-      <c r="X31" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z31" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="W31" s="4"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J32" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G32" s="4">
-        <v>41275</v>
-      </c>
-      <c r="H32" s="4">
-        <v>41639</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V32" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="W32" s="2">
-        <v>1731</v>
-      </c>
-      <c r="X32" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z32" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G33" s="4">
-        <v>41640</v>
-      </c>
-      <c r="H33" s="4">
-        <v>42004</v>
+        <v>329</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>385</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>64</v>
+        <v>414</v>
       </c>
       <c r="W33" s="2">
-        <v>1852</v>
+        <v>1618</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Z33" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G34" s="4">
-        <v>42005</v>
-      </c>
-      <c r="H34" s="4">
-        <v>42369</v>
+        <v>329</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>384</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>64</v>
+        <v>414</v>
       </c>
       <c r="W34" s="2">
-        <v>1982</v>
+        <v>1731</v>
       </c>
       <c r="X34" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Z34" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G35" s="4">
-        <v>42370</v>
-      </c>
-      <c r="H35" s="4">
-        <v>42735</v>
+        <v>329</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>386</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>64</v>
+        <v>414</v>
       </c>
       <c r="W35" s="2">
-        <v>2121</v>
+        <v>1852</v>
       </c>
       <c r="X35" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Z35" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G36" s="4">
-        <v>42736</v>
-      </c>
-      <c r="H36" s="4">
-        <v>43100</v>
+        <v>329</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>387</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>64</v>
+        <v>414</v>
       </c>
       <c r="W36" s="2">
-        <v>2269</v>
+        <v>1982</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Z36" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G37" s="4">
-        <v>43101</v>
-      </c>
-      <c r="H37" s="4">
-        <v>43465</v>
+        <v>329</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>388</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>64</v>
+        <v>414</v>
       </c>
       <c r="W37" s="2">
-        <v>2405</v>
+        <v>2121</v>
       </c>
       <c r="X37" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Z37" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G38" s="4">
-        <v>43466</v>
-      </c>
-      <c r="H38" s="4">
-        <v>43830</v>
+        <v>329</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>389</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>64</v>
+        <v>414</v>
       </c>
       <c r="W38" s="2">
-        <v>2525</v>
+        <v>2269</v>
       </c>
       <c r="X38" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Z38" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G39" s="4">
-        <v>43831</v>
-      </c>
-      <c r="H39" s="4">
-        <v>43921</v>
+        <v>329</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>390</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>348</v>
+        <v>263</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>349</v>
+        <v>289</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>64</v>
+        <v>414</v>
       </c>
       <c r="W39" s="2">
-        <v>2651</v>
+        <v>2405</v>
       </c>
       <c r="X39" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Z39" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G40" s="4">
-        <v>43922</v>
-      </c>
-      <c r="H40" s="4">
-        <v>44196</v>
+        <v>329</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>391</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>347</v>
+        <v>264</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>350</v>
+        <v>290</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>64</v>
+        <v>414</v>
       </c>
       <c r="W40" s="2">
-        <v>2778</v>
+        <v>2525</v>
       </c>
       <c r="X40" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Z40" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G41" s="4">
-        <v>44197</v>
-      </c>
-      <c r="H41" s="4">
-        <v>44561</v>
+        <v>329</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>394</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>273</v>
+        <v>341</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>64</v>
+        <v>414</v>
       </c>
       <c r="W41" s="2">
-        <v>2917</v>
+        <v>2651</v>
       </c>
       <c r="X41" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Z41" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G42" s="4">
-        <v>44562</v>
-      </c>
-      <c r="H42" s="4">
-        <v>44926</v>
+        <v>329</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>392</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>274</v>
+        <v>340</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>64</v>
+        <v>414</v>
       </c>
       <c r="W42" s="2">
-        <v>3063</v>
+        <v>2778</v>
       </c>
       <c r="X42" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Z42" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G43" s="4">
-        <v>44927</v>
-      </c>
-      <c r="H43" s="4">
-        <v>45291</v>
+        <v>329</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>311</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>64</v>
+        <v>414</v>
       </c>
       <c r="W43" s="2">
-        <v>3450</v>
+        <v>2917</v>
       </c>
       <c r="X43" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Z43" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>66</v>
+        <v>268</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>66</v>
+        <v>268</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>67</v>
+        <v>292</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V44" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="W44" s="2">
+        <v>3063</v>
+      </c>
+      <c r="X44" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z44" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="H45" s="4">
-        <v>41274</v>
+        <v>396</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>398</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>64</v>
+        <v>414</v>
       </c>
       <c r="W45" s="2">
-        <v>17439</v>
+        <v>3450</v>
       </c>
       <c r="X45" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Z45" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G46" s="4">
-        <v>41275</v>
-      </c>
-      <c r="H46" s="4">
-        <v>41639</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V46" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="W46" s="2">
-        <v>18660</v>
-      </c>
-      <c r="X46" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z46" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G47" s="4">
-        <v>41640</v>
-      </c>
-      <c r="H47" s="4">
-        <v>42004</v>
+        <v>329</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>278</v>
+        <v>64</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V47" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="W47" s="2">
-        <v>19966</v>
-      </c>
-      <c r="X47" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="Z47" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G48" s="4">
-        <v>42005</v>
-      </c>
-      <c r="H48" s="4">
-        <v>42369</v>
+        <v>329</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>385</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>64</v>
+        <v>414</v>
       </c>
       <c r="W48" s="2">
-        <v>21364</v>
+        <v>17439</v>
       </c>
       <c r="X48" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Z48" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G49" s="4">
-        <v>42370</v>
-      </c>
-      <c r="H49" s="4">
-        <v>42735</v>
+        <v>329</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>384</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V49" s="2" t="s">
-        <v>64</v>
+        <v>414</v>
       </c>
       <c r="W49" s="2">
-        <v>22859</v>
+        <v>18660</v>
       </c>
       <c r="X49" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Z49" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G50" s="4">
-        <v>42736</v>
-      </c>
-      <c r="H50" s="4">
-        <v>43100</v>
+        <v>329</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>386</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V50" s="2" t="s">
-        <v>64</v>
+        <v>414</v>
       </c>
       <c r="W50" s="2">
-        <v>24459</v>
+        <v>19966</v>
       </c>
       <c r="X50" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Z50" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G51" s="4">
-        <v>43101</v>
-      </c>
-      <c r="H51" s="4">
-        <v>43465</v>
+        <v>329</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>387</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V51" s="2" t="s">
-        <v>64</v>
+        <v>414</v>
       </c>
       <c r="W51" s="2">
-        <v>28284</v>
+        <v>21364</v>
       </c>
       <c r="X51" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Z51" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G52" s="4">
-        <v>43466</v>
-      </c>
-      <c r="H52" s="4">
-        <v>43830</v>
+        <v>329</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>388</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V52" s="2" t="s">
-        <v>64</v>
+        <v>414</v>
       </c>
       <c r="W52" s="2">
-        <v>42500</v>
+        <v>22859</v>
       </c>
       <c r="X52" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Z52" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G53" s="4">
-        <v>43831</v>
-      </c>
-      <c r="H53" s="4">
-        <v>43921</v>
+        <v>329</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>389</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>351</v>
+        <v>275</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>353</v>
+        <v>299</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V53" s="2" t="s">
-        <v>64</v>
+        <v>414</v>
       </c>
       <c r="W53" s="2">
-        <v>42500</v>
+        <v>24459</v>
       </c>
       <c r="X53" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Z53" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G54" s="4">
-        <v>43922</v>
-      </c>
-      <c r="H54" s="4">
-        <v>44196</v>
+        <v>329</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>390</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>352</v>
+        <v>276</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>354</v>
+        <v>300</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V54" s="2" t="s">
-        <v>64</v>
+        <v>414</v>
       </c>
       <c r="W54" s="2">
-        <v>42500</v>
+        <v>28284</v>
       </c>
       <c r="X54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Z54" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G55" s="4">
-        <v>44197</v>
-      </c>
-      <c r="H55" s="4">
-        <v>44561</v>
+        <v>329</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>391</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V55" s="2" t="s">
-        <v>64</v>
+        <v>414</v>
       </c>
       <c r="W55" s="2">
         <v>42500</v>
       </c>
       <c r="X55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Z55" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G56" s="4">
-        <v>44562</v>
-      </c>
-      <c r="H56" s="4">
-        <v>44926</v>
+        <v>329</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>394</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>287</v>
+        <v>344</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V56" s="2" t="s">
-        <v>64</v>
+        <v>414</v>
       </c>
       <c r="W56" s="2">
-        <v>60000</v>
+        <v>42500</v>
       </c>
       <c r="X56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Z56" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G57" s="4">
-        <v>44927</v>
-      </c>
-      <c r="H57" s="4">
-        <v>45291</v>
+        <v>329</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>392</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>288</v>
+        <v>345</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V57" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="W57" s="2">
+        <v>42500</v>
+      </c>
+      <c r="X57" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z57" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="W57" s="2">
-        <v>70000</v>
-      </c>
-      <c r="X57" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z57" s="2" t="s">
-        <v>33</v>
+      <c r="F58" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V58" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="W58" s="2">
+        <v>42500</v>
+      </c>
+      <c r="X58" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z58" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>355</v>
+        <v>281</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>355</v>
+        <v>281</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>68</v>
+        <v>303</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V59" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="W59" s="2">
+        <v>60000</v>
+      </c>
+      <c r="X59" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z59" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>356</v>
+        <v>282</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>355</v>
+        <v>64</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>312</v>
+        <v>396</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>398</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>356</v>
+        <v>282</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>69</v>
+        <v>304</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O60" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q60" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="V60" s="2" t="s">
-        <v>71</v>
+        <v>414</v>
       </c>
       <c r="W60" s="2">
-        <v>5</v>
+        <v>70000</v>
       </c>
       <c r="X60" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="Z60" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O61" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q61" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="V61" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="W61" s="2">
-        <v>10</v>
-      </c>
-      <c r="X61" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z61" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O62" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q62" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="V62" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="W62" s="2">
-        <v>20</v>
-      </c>
-      <c r="X62" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z62" s="2" t="s">
-        <v>33</v>
+        <v>414</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>380</v>
+        <v>349</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>380</v>
+        <v>349</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O63" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q63" s="2" t="s">
-        <v>76</v>
+      <c r="P63" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R63" s="2" t="s">
+        <v>359</v>
       </c>
       <c r="V63" s="2" t="s">
-        <v>71</v>
+        <v>415</v>
       </c>
       <c r="W63" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X63" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z63" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O64" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q64" s="2" t="s">
-        <v>76</v>
+      <c r="P64" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R64" s="2" t="s">
+        <v>350</v>
       </c>
       <c r="V64" s="2" t="s">
-        <v>71</v>
+        <v>415</v>
       </c>
       <c r="W64" s="2">
         <v>10</v>
       </c>
       <c r="X64" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z64" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>77</v>
+        <v>358</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O65" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q65" s="2" t="s">
-        <v>78</v>
+      <c r="P65" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R65" s="2" t="s">
+        <v>357</v>
       </c>
       <c r="V65" s="2" t="s">
-        <v>71</v>
+        <v>415</v>
       </c>
       <c r="W65" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="X65" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z65" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O66" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q66" s="2" t="s">
-        <v>78</v>
+      <c r="P66" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="R66" s="2" t="s">
+        <v>363</v>
       </c>
       <c r="V66" s="2" t="s">
-        <v>71</v>
+        <v>415</v>
       </c>
       <c r="W66" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="X66" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z66" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="R67" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="V67" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="W67" s="2">
+        <v>2</v>
+      </c>
+      <c r="X67" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z67" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="R68" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="V68" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="W68" s="2">
+        <v>3</v>
+      </c>
+      <c r="X68" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z68" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R69" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="V69" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="W69" s="2">
+        <v>11</v>
+      </c>
+      <c r="X69" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z69" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R70" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="V70" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="W70" s="2">
+        <v>7</v>
+      </c>
+      <c r="X70" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z70" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R71" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O67" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q67" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="V67" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="W67" s="2">
-        <v>11</v>
-      </c>
-      <c r="X67" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z67" s="2" t="s">
-        <v>33</v>
+      <c r="V71" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="W71" s="2">
+        <v>50</v>
+      </c>
+      <c r="X71" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z71" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>362</v>
+        <v>402</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>81</v>
+        <v>307</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O72" s="2" t="s">
-        <v>376</v>
+      <c r="P72" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="R72" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="V72" s="2" t="s">
-        <v>82</v>
+        <v>416</v>
       </c>
       <c r="W72" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="X72" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="Z72" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>84</v>
+        <v>307</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>405</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O73" s="2" t="s">
-        <v>377</v>
+      <c r="P73" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="R73" s="2" t="s">
+        <v>404</v>
       </c>
       <c r="V73" s="2" t="s">
-        <v>82</v>
+        <v>416</v>
       </c>
       <c r="W73" s="2">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="X73" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="Z73" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>364</v>
+        <v>428</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>85</v>
+        <v>306</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="J74" s="8" t="s">
+        <v>429</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O74" s="2" t="s">
-        <v>378</v>
+      <c r="P74" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="R74" s="2" t="s">
+        <v>428</v>
       </c>
       <c r="V74" s="2" t="s">
-        <v>82</v>
+        <v>415</v>
       </c>
       <c r="W74" s="2">
         <v>10</v>
       </c>
       <c r="X74" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="Z74" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="J75" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P75" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="R75" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="V75" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="W75" s="2">
+        <v>25</v>
+      </c>
+      <c r="X75" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z75" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="I76" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="J76" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="R76" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="V76" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="W76" s="2">
+        <v>40</v>
+      </c>
+      <c r="X76" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z76" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="J77" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P77" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="R77" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="V77" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="W77" s="2">
+        <v>15</v>
+      </c>
+      <c r="X77" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z77" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>29</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q79" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="S79" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
+      </c>
+      <c r="P79" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R79" s="2" t="s">
+        <v>352</v>
       </c>
       <c r="V79" s="2" t="s">
-        <v>71</v>
+        <v>415</v>
       </c>
       <c r="W79" s="2">
         <v>12</v>
       </c>
       <c r="X79" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z79" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>29</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q80" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="S80" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>353</v>
       </c>
       <c r="V80" s="2" t="s">
-        <v>71</v>
+        <v>415</v>
       </c>
       <c r="W80" s="2">
         <v>12</v>
       </c>
       <c r="X80" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z80" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>29</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q81" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="S81" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
+      </c>
+      <c r="P81" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R81" s="2" t="s">
+        <v>354</v>
       </c>
       <c r="V81" s="2" t="s">
-        <v>71</v>
+        <v>415</v>
       </c>
       <c r="W81" s="2">
         <v>8</v>
       </c>
       <c r="X81" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z81" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I82" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="F82" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>368</v>
-      </c>
       <c r="J82" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>29</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q82" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="S82" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
+      </c>
+      <c r="P82" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R82" s="2" t="s">
+        <v>362</v>
       </c>
       <c r="V82" s="2" t="s">
-        <v>71</v>
+        <v>415</v>
       </c>
       <c r="W82" s="2">
         <v>12</v>
       </c>
       <c r="X82" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z82" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>29</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q83" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="S83" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
+      </c>
+      <c r="P83" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R83" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="V83" s="2" t="s">
-        <v>71</v>
+        <v>415</v>
       </c>
       <c r="W83" s="2">
         <v>8</v>
       </c>
       <c r="X83" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z83" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J85" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K85" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z85" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="G84" s="3"/>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M86" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="V86" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W86" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="X86" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z86" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="V87" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W87" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="X87" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F87" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="K87" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M87" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="V87" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W87" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="X87" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z87" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="V88" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W88" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="X88" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F88" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="J88" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K88" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M88" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="V88" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W88" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="X88" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z88" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="V89" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W89" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="X89" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F89" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J89" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K89" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M89" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="V89" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W89" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="X89" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z89" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="V90" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W90" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="X90" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F90" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J90" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="K90" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M90" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="V90" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W90" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="X90" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z90" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="K91" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="V91" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="W91" s="2" t="s">
         <v>104</v>
       </c>
       <c r="X91" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="Z91" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="V92" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W92" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="X92" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F92" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="J92" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="K92" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M92" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="V92" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W92" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="X92" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z92" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="V93" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W93" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="X93" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F93" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J93" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K93" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M93" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="V93" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W93" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="X93" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z93" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="V94" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W94" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="X94" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="J94" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="K94" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M94" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="V94" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W94" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="X94" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z94" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="V95" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W95" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="X95" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F95" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J95" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K95" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M95" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="V95" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W95" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="X95" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z95" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="V96" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W96" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="X96" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F96" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="J96" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="K96" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M96" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="V96" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W96" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="X96" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z96" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="V97" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W97" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="X97" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F97" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="K97" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M97" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="V97" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W97" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="X97" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z97" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="V98" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W98" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="X98" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F98" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J98" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K98" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M98" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="V98" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W98" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="X98" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z98" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="V99" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W99" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="X99" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F99" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="J99" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="K99" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M99" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="V99" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W99" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="X99" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z99" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="V100" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W100" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="X100" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F100" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="J100" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="K100" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M100" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="V100" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W100" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="X100" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z100" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="V101" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W101" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="X101" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F101" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J101" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K101" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M101" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="V101" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W101" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="X101" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z101" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M102" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="V102" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W102" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="X102" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F102" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="J102" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="K102" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M102" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="V102" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W102" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="X102" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z102" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="V103" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W103" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="X103" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F103" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="J103" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="K103" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M103" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="V103" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W103" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="X103" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z103" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="V104" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W104" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="X104" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F104" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J104" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K104" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M104" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="V104" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W104" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="X104" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z104" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="V105" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W105" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="X105" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F105" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="J105" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="K105" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M105" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="V105" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W105" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="X105" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z105" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M106" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="V106" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W106" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="X106" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F106" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="J106" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="K106" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M106" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="V106" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W106" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="X106" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z106" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M107" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="V107" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W107" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="X107" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F107" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="J107" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="K107" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M107" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="V107" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W107" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="X107" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z107" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M108" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="V108" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W108" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="X108" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F108" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I108" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="J108" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K108" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M108" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="V108" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W108" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="X108" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z108" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M109" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="V109" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W109" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="X109" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F109" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="J109" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="K109" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M109" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="V109" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W109" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="X109" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z109" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M110" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="V110" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W110" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="X110" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F110" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I110" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="J110" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="K110" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M110" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="V110" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W110" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="X110" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z110" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M111" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="V111" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W111" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="X111" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F111" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J111" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="K111" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M111" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="V111" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W111" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="X111" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z111" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M112" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="V112" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W112" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="X112" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F112" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="J112" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="K112" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M112" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="V112" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W112" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="X112" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z112" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="V113" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W113" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="X113" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F113" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I113" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="J113" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K113" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M113" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="V113" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W113" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="X113" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z113" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M114" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="V114" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W114" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="X114" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F114" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G114" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="J114" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="K114" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M114" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="V114" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W114" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="X114" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z114" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="V115" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W115" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="X115" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F115" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I115" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="J115" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="K115" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M115" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="V115" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W115" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="X115" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z115" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K116" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M116" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="V116" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W116" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="X116" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F116" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I116" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="J116" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="K116" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M116" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="V116" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W116" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="X116" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z116" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="K117" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M117" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="V117" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W117" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="X117" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F117" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I117" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="J117" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="K117" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M117" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="V117" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W117" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="X117" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z117" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M118" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="V118" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W118" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="X118" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F118" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I118" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="J118" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="K118" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M118" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="V118" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W118" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="X118" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z118" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M119" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="V119" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W119" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="X119" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F119" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I119" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="J119" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="K119" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M119" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="V119" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W119" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="X119" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z119" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="K120" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M120" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="V120" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W120" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="X120" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F120" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I120" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="J120" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="K120" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M120" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="V120" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W120" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="X120" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z120" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="K121" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M121" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="V121" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W121" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="X121" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F121" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I121" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="J121" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="K121" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M121" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="V121" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W121" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="X121" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z121" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="K122" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M122" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="V122" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W122" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="X122" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F122" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I122" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="J122" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="K122" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M122" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="V122" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W122" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="X122" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z122" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K123" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M123" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="V123" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W123" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="X123" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F123" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I123" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="J123" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="K123" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M123" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="V123" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W123" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="X123" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z123" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K124" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M124" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="V124" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W124" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="X124" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F124" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I124" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="J124" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="K124" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M124" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="V124" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W124" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="X124" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z124" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="K125" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M125" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="V125" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W125" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="X125" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F125" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I125" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="J125" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="K125" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M125" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="V125" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W125" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="X125" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z125" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="K126" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M126" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="V126" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W126" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="X126" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F126" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I126" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="J126" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="K126" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M126" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="V126" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W126" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="X126" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z126" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M127" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="V127" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W127" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="X127" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F127" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="J127" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="K127" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M127" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="V127" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W127" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="X127" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z127" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J128" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="K128" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M128" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="V128" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W128" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="X128" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F128" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I128" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="J128" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="K128" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M128" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="V128" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W128" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="X128" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z128" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J129" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="K129" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M129" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="V129" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W129" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="X129" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F129" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I129" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="J129" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="K129" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M129" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="V129" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W129" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="X129" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z129" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J130" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M130" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="V130" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W130" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="X130" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F130" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I130" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="J130" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="K130" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M130" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="V130" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W130" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="X130" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z130" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J131" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K131" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M131" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="V131" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W131" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="X131" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F131" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G131" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I131" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="J131" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="K131" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M131" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="V131" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W131" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="X131" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z131" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M132" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="V132" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W132" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="X132" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F132" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G132" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I132" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="J132" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="K132" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M132" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="V132" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W132" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="X132" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z132" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="J133" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="K133" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M133" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="V133" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W133" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="X133" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F133" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G133" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I133" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="J133" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="K133" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M133" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="V133" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W133" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="X133" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z133" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="J134" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K134" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M134" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="V134" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W134" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="X134" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F134" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I134" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J134" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="K134" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M134" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="V134" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W134" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="X134" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z134" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="J135" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="K135" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M135" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="V135" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W135" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="X135" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F135" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G135" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I135" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="J135" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="K135" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M135" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="V135" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W135" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="X135" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z135" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J136" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="K136" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M136" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="V136" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W136" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="X136" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F136" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G136" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I136" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="J136" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="K136" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M136" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="V136" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W136" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="X136" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z136" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J137" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="K137" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M137" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="V137" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W137" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="X137" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F137" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I137" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="J137" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="K137" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M137" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="V137" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W137" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="X137" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z137" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="J138" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M138" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="V138" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W138" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="X138" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F138" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G138" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I138" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="J138" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="K138" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M138" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="V138" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W138" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="X138" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z138" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="J139" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="K139" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M139" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="V139" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W139" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="X139" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F139" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G139" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I139" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="J139" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="K139" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M139" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="V139" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W139" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="X139" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z139" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="J140" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="K140" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M140" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="V140" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W140" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="X140" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F140" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G140" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I140" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="J140" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="K140" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M140" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="V140" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W140" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="X140" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z140" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="141" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="J141" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K141" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M141" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="V141" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W141" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="X141" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F141" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G141" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I141" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="J141" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="K141" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M141" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="V141" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W141" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="X141" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z141" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="142" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K142" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M142" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="V142" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W142" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="X142" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F142" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G142" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I142" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="J142" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="K142" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M142" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="V142" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W142" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="X142" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z142" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="143" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J143" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="K143" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M143" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="V143" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W143" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="X143" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F143" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G143" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I143" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="J143" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="K143" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M143" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="V143" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W143" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="X143" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z143" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="144" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="J144" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="K144" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M144" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="V144" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W144" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="X144" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F144" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G144" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I144" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="J144" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="K144" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M144" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="V144" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W144" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="X144" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="Z144" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="145" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="J145" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M145" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="V145" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W145" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="X145" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F145" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G145" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I145" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="J145" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="K145" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M145" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F147" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G147" s="3" t="s">
+      <c r="Z145" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="J146" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="K146" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M146" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F148" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="I148" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="I147" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="J147" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G148" s="3" t="s">
+      <c r="J148" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="I148" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="J148" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="K148" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="V148" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W148" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="X148" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="Z148" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="149" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="K149" s="2" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="V149" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="W149" s="2" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="X149" s="5" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="Z149" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="J150" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="K150" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="V150" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W150" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="F150" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G150" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="I150" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="J150" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="K150" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="V150" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W150" s="2" t="s">
-        <v>326</v>
-      </c>
       <c r="X150" s="5" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="Z150" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="151" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="K151" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="V151" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W151" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="V151" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W151" s="2" t="s">
-        <v>328</v>
-      </c>
       <c r="X151" s="5" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="Z151" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="152" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="V152" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="W152" s="2" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="X152" s="5" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="Z152" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="153" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="V153" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="W153" s="2" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="X153" s="5" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="Z153" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="154" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G154" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="I154" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="J154" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="K154" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="V154" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W154" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="X154" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z154" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="155" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="I154" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="J154" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="K154" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="V154" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W154" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="X154" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="Z154" s="2" t="s">
-        <v>33</v>
+      <c r="F155" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="I155" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="J155" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="K155" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="T155" s="7"/>
+      <c r="U155" s="7"/>
+      <c r="V155" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W155" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="X155" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z155" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="156" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="G156" s="3"/>
+      <c r="T156" s="7"/>
+      <c r="U156" s="7"/>
+      <c r="X156" s="12"/>
+    </row>
+    <row r="157" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I157" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="J157" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="K157" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N157" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="T157" s="7"/>
+      <c r="U157" s="7"/>
+      <c r="Z157" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="158" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="J158" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="K158" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L158" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="M158" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="T158" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="U158" s="7"/>
+      <c r="V158" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W158" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="X158" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z158" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="159" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I159" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="J159" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="K159" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L159" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="M159" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="T159" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="U159" s="7"/>
+      <c r="V159" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W159" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="X159" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z159" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="160" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="J160" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="K160" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L160" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="M160" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="T160" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="U160" s="7"/>
+      <c r="V160" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W160" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="X160" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z160" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="161" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I161" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="J161" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="K161" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L161" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="M161" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="T161" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="U161" s="7"/>
+      <c r="V161" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W161" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="X161" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z161" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="162" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T162" s="7"/>
+      <c r="U162" s="7"/>
+      <c r="X162" s="7"/>
+    </row>
+    <row r="163" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="J163" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="K163" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T163" s="7"/>
+      <c r="U163" s="7"/>
+      <c r="X163" s="7"/>
+      <c r="Z163" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="164" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="I164" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="J164" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="K164" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T164" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="U164" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="V164" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="W164" s="2">
+        <v>0</v>
+      </c>
+      <c r="X164" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z164" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="165" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="I165" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="J165" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="K165" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T165" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="U165" s="7"/>
+      <c r="V165" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="W165" s="2">
+        <v>8</v>
+      </c>
+      <c r="X165" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="Z165" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="166" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="I166" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="J166" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="K166" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T166" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="U166" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="V166" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="W166" s="2">
+        <v>14</v>
+      </c>
+      <c r="X166" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="Z166" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="33" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="28" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>